--- a/published-data/fonds-solidarite/fds-2022-06-09/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-09/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -14782,13 +14782,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>33747</v>
+        <v>33748</v>
       </c>
       <c r="D282" t="n">
         <v>6781</v>
       </c>
       <c r="E282" t="n">
-        <v>130819373</v>
+        <v>130824436</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -19525,13 +19525,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="D375" t="n">
         <v>273</v>
       </c>
       <c r="E375" t="n">
-        <v>48307762</v>
+        <v>48368408</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -21463,13 +21463,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D413" t="n">
         <v>120</v>
       </c>
       <c r="E413" t="n">
-        <v>27615766</v>
+        <v>27787062</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
@@ -21820,13 +21820,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>45877</v>
+        <v>45878</v>
       </c>
       <c r="D420" t="n">
         <v>7717</v>
       </c>
       <c r="E420" t="n">
-        <v>185167584</v>
+        <v>185177584</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61094</v>
+        <v>61095</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>221103734</v>
+        <v>221113734</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163614</v>
+        <v>163615</v>
       </c>
       <c r="D434" t="n">
         <v>25456</v>
       </c>
       <c r="E434" t="n">
-        <v>711481830</v>
+        <v>711484113</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30968</v>
+        <v>30970</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>595862284</v>
+        <v>595970335</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10265</v>
+        <v>10266</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>482997243</v>
+        <v>483059985</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -24166,13 +24166,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>15716</v>
+        <v>15717</v>
       </c>
       <c r="D466" t="n">
         <v>2329</v>
       </c>
       <c r="E466" t="n">
-        <v>28477979</v>
+        <v>28480645</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -25033,13 +25033,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="D483" t="n">
         <v>367</v>
       </c>
       <c r="E483" t="n">
-        <v>29302940</v>
+        <v>29333404</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="D509" t="n">
         <v>967</v>
       </c>
       <c r="E509" t="n">
-        <v>20593756</v>
+        <v>20627806</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -41965,13 +41965,13 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>4939</v>
+        <v>4940</v>
       </c>
       <c r="D815" t="n">
         <v>701</v>
       </c>
       <c r="E815" t="n">
-        <v>93914768</v>
+        <v>93969383</v>
       </c>
       <c r="F815" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>26719</v>
+        <v>26725</v>
       </c>
       <c r="D853" t="n">
         <v>4905</v>
       </c>
       <c r="E853" t="n">
-        <v>107357136</v>
+        <v>107417136</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
